--- a/sc/qa/unit/data/xlsx/tdf137543.xlsx
+++ b/sc/qa/unit/data/xlsx/tdf137543.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capta\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEA765E-03C4-45EC-8DD4-AEC3B27BA6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -19,12 +35,89 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Source array</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -32,22 +125,12 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,108 +141,251 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39979247413556324"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -212,33 +438,263 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
-        <f aca="false" t="array" ref="B2:B2">_xlfn.LET(_xlpm.first,15,_xlpm.second,10,SUM(_xlpm.first,_xlpm.second))</f>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f t="array" ref="B2">_xlfn.LET(_xlpm.first,15,_xlpm.second,10,SUM(_xlpm.first,_xlpm.second))</f>
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="array" ref="M5:P10">_xlfn.LET(_xlpm.first,B5:E15,_xlfn.CHOOSEROWS(_xlpm.first, 1, 3, 5, 7, 9, 11))</f>
+        <v>A</v>
+      </c>
+      <c r="N5" t="str">
+        <v>B</v>
+      </c>
+      <c r="O5" t="str">
+        <v>C</v>
+      </c>
+      <c r="P5" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="M6" t="str">
+        <v>E</v>
+      </c>
+      <c r="N6" t="str">
+        <v>F</v>
+      </c>
+      <c r="O6" t="str">
+        <v>G</v>
+      </c>
+      <c r="P6" t="str">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="str">
+        <v>I</v>
+      </c>
+      <c r="N7" t="str">
+        <v>J</v>
+      </c>
+      <c r="O7" t="str">
+        <v>K</v>
+      </c>
+      <c r="P7" t="str">
+        <v>L</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="M8" t="str">
+        <v>M</v>
+      </c>
+      <c r="N8" t="str">
+        <v>N</v>
+      </c>
+      <c r="O8" t="str">
+        <v>O</v>
+      </c>
+      <c r="P8" t="str">
+        <v>P</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Q</v>
+      </c>
+      <c r="N9" t="str">
+        <v>R</v>
+      </c>
+      <c r="O9" t="str">
+        <v>S</v>
+      </c>
+      <c r="P9" t="str">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12</v>
+      </c>
+      <c r="M10" t="str">
+        <v>U</v>
+      </c>
+      <c r="N10" t="str">
+        <v>V</v>
+      </c>
+      <c r="O10" t="str">
+        <v>W</v>
+      </c>
+      <c r="P10" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
